--- a/Example/TestTable/字典类型.xlsx
+++ b/Example/TestTable/字典类型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FlyFly\WorkSpace\ExcelToCode\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ExcelToCode\Example\TestTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB47F4A-C166-447E-AA39-6AAC15E68D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CA8DFE-63F5-47C6-9D5E-27CA1CC364AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="3420" windowWidth="19005" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,17 +51,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0:1|1:2|2:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-1  :  1 |  -2  : 2  |  -3 :  3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1  :  1  |
-2  :  2 |
-3  :  1  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -130,6 +120,17 @@
   </si>
   <si>
     <t>1  :  true  |   2  : false   | 3  : true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x123F:0x11|1:2|2:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1  :  1  |
+2  :  2 |
+3  :  1  |
+0xff : 0x12fa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,12 +207,12 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,45 +497,45 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.75" defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="37.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="53.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="52.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="46.125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="40.75" style="3"/>
+    <col min="1" max="1" width="16.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="53.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="52.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="46.125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="40.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -545,13 +546,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -559,46 +560,46 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="111" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>23</v>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
